--- a/results/yq_test/total_result.xlsx
+++ b/results/yq_test/total_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{67C5ED60-CBEB-0C45-9F6B-D4D58D1303FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D1947F-6345-5640-9915-D2086D01F179}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{67C5ED60-CBEB-0C45-9F6B-D4D58D1303FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAF4C3F-D6A6-A541-A106-D26CEB7904FF}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="40" windowWidth="28100" windowHeight="17360" xr2:uid="{9349C15C-7E3B-F540-ACAA-517A44730C87}"/>
+    <workbookView xWindow="340" yWindow="40" windowWidth="11060" windowHeight="17360" xr2:uid="{9349C15C-7E3B-F540-ACAA-517A44730C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>4gt13_92.qasm</t>
   </si>
   <si>
-    <t>0.8236201666476438,</t>
-  </si>
-  <si>
     <t>4mod5-v1_22.qasm</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t> 0.29082981290799126</t>
+  </si>
+  <si>
+    <t>qv_n12_d10.qasm</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62246B74-17F5-2747-AC1B-9010D136899C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -510,13 +510,13 @@
       <c r="B2">
         <v>0.86037370000000002</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>0.82362016664764304</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.94634700000000005</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.91830920000000005</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.92461519999999997</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.89557699999999996</v>
@@ -560,18 +560,18 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.9229212</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.63687850000000001</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.54795260000000001</v>
@@ -593,21 +593,35 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.47142269999999997</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.45661220000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.24732512966026099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.40175949999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.25791807218059098</v>
       </c>
     </row>
   </sheetData>
